--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918FE55-E093-46E5-88C6-1D0D76D6FBFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59637D56-30DF-453F-BDED-B0AF3F28E1D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -581,6 +581,97 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・機材
+　　アクリル板？
+　　ボード
+　　仕切り？
+・機体の大きさは13cm*13cm</t>
+    <rPh sb="1" eb="3">
+      <t>キザイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・杉山:本体のモータ制御と、テープLEDの確認
+・橋本:本体の機体制作。完成している
+・三井:本体制御のアプリケーションの完成</t>
+    <rPh sb="1" eb="3">
+      <t>スギヤマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハシモト</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ミツイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・爆撃機本体優先で、ボンバーマンのボードを作成を始める。
+・LEDテープについてよく知る.</t>
+    <rPh sb="1" eb="4">
+      <t>バクゲキキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>シ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1699,18 +1790,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1720,17 +1811,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2028,7 +2119,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:D7"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2075,466 +2166,435 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="116">
+      <c r="B3" s="115">
         <v>43364</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="118" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="117"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="115"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="117"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="115"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="117"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="115"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="118"/>
-      <c r="C7" s="115"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="115"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="116">
+      <c r="B8" s="115">
         <v>43371</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="115"/>
+      <c r="C8" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="118"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="117"/>
-      <c r="C10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="117"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="118"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="118"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="116">
+      <c r="B13" s="115">
         <v>43378</v>
       </c>
-      <c r="C13" s="115"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="119"/>
-      <c r="E13" s="115"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="117"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="117"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="117"/>
-      <c r="C16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="118"/>
-      <c r="C17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="118"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="116">
+      <c r="B18" s="115">
         <v>43385</v>
       </c>
-      <c r="C18" s="115"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="119"/>
-      <c r="E18" s="115"/>
+      <c r="E18" s="118"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="117"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="118"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="117"/>
-      <c r="C20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="118"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="117"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="118"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="118"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="118"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="116">
+      <c r="B23" s="115">
         <v>43392</v>
       </c>
-      <c r="C23" s="115"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="119"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="118"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="117"/>
-      <c r="C24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="118"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="117"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="117"/>
-      <c r="C26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="118"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="118"/>
-      <c r="C27" s="115"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="118"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="116">
+      <c r="B28" s="115">
         <v>43399</v>
       </c>
-      <c r="C28" s="115"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="119"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="118"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="117"/>
-      <c r="C29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="118"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="117"/>
-      <c r="C30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="118"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="117"/>
-      <c r="C31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="118"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="118"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="116">
+      <c r="B33" s="115">
         <v>43406</v>
       </c>
-      <c r="C33" s="115"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="119"/>
-      <c r="E33" s="115"/>
+      <c r="E33" s="118"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="117"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="115"/>
+      <c r="E34" s="118"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="117"/>
-      <c r="C35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="115"/>
+      <c r="E35" s="118"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="117"/>
-      <c r="C36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="115"/>
+      <c r="E36" s="118"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="115"/>
+      <c r="E37" s="118"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="116">
+      <c r="B38" s="115">
         <v>43413</v>
       </c>
-      <c r="C38" s="115"/>
+      <c r="C38" s="118"/>
       <c r="D38" s="119"/>
-      <c r="E38" s="115"/>
+      <c r="E38" s="118"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="117"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="115"/>
+      <c r="E39" s="118"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="117"/>
-      <c r="C40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="115"/>
+      <c r="E40" s="118"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="117"/>
-      <c r="C41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="115"/>
+      <c r="E41" s="118"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="115"/>
+      <c r="E42" s="118"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="116">
+      <c r="B43" s="115">
         <v>43420</v>
       </c>
-      <c r="C43" s="115"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="119"/>
-      <c r="E43" s="115"/>
+      <c r="E43" s="118"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="117"/>
-      <c r="C44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="115"/>
+      <c r="E44" s="118"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="117"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="115"/>
+      <c r="E45" s="118"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="117"/>
-      <c r="C46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="115"/>
+      <c r="E46" s="118"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="115"/>
+      <c r="E47" s="118"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="116">
+      <c r="B48" s="115">
         <v>43427</v>
       </c>
-      <c r="C48" s="115"/>
+      <c r="C48" s="118"/>
       <c r="D48" s="119"/>
-      <c r="E48" s="115"/>
+      <c r="E48" s="118"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="117"/>
-      <c r="C49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="115"/>
+      <c r="E49" s="118"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="117"/>
-      <c r="C50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="115"/>
+      <c r="E50" s="118"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="117"/>
-      <c r="C51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="115"/>
+      <c r="E51" s="118"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="115"/>
+      <c r="E52" s="118"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="116">
+      <c r="B53" s="115">
         <v>43434</v>
       </c>
-      <c r="C53" s="115"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="119"/>
-      <c r="E53" s="115"/>
+      <c r="E53" s="118"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="117"/>
-      <c r="C54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="115"/>
+      <c r="E54" s="118"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="117"/>
-      <c r="C55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="115"/>
+      <c r="E55" s="118"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="117"/>
-      <c r="C56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="115"/>
+      <c r="E56" s="118"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="115"/>
+      <c r="E57" s="118"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="116">
+      <c r="B58" s="115">
         <v>43441</v>
       </c>
-      <c r="C58" s="115"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="115"/>
+      <c r="E58" s="118"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="117"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="115"/>
+      <c r="E59" s="118"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="117"/>
-      <c r="C60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="115"/>
+      <c r="E60" s="118"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="117"/>
-      <c r="C61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="115"/>
+      <c r="E61" s="118"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="118"/>
-      <c r="C62" s="115"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="115"/>
+      <c r="E62" s="118"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="116">
+      <c r="B63" s="115">
         <v>43448</v>
       </c>
-      <c r="C63" s="115"/>
+      <c r="C63" s="118"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="115"/>
+      <c r="E63" s="118"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="117"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="115"/>
+      <c r="E64" s="118"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="117"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="115"/>
+      <c r="E65" s="118"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="117"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="115"/>
+      <c r="E66" s="118"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="118"/>
-      <c r="C67" s="115"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="115"/>
+      <c r="E67" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2551,6 +2611,43 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2722,51 +2819,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122" t="s">
+      <c r="F4" s="124"/>
+      <c r="G4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122" t="s">
+      <c r="H4" s="124"/>
+      <c r="I4" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122" t="s">
+      <c r="J4" s="124"/>
+      <c r="K4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122" t="s">
+      <c r="L4" s="124"/>
+      <c r="M4" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122" t="s">
+      <c r="N4" s="124"/>
+      <c r="O4" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122" t="s">
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122" t="s">
+      <c r="R4" s="124"/>
+      <c r="S4" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122" t="s">
+      <c r="T4" s="124"/>
+      <c r="U4" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122" t="s">
+      <c r="V4" s="124"/>
+      <c r="W4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122" t="s">
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="123"/>
+      <c r="Z4" s="125"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -2778,7 +2875,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="122" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2821,7 +2918,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="125"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -2860,7 +2957,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="125"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -2899,7 +2996,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="125"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -2938,7 +3035,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="125"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -2977,7 +3074,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="125"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -3675,7 +3772,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="122" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3716,7 +3813,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="125"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -3755,7 +3852,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="125"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -3794,7 +3891,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="125"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -3833,7 +3930,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="125"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -3872,7 +3969,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="125"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4220,11 +4317,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4237,6 +4329,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59637D56-30DF-453F-BDED-B0AF3F28E1D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C0DB8C-C202-48F8-BE25-6536AF274B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -672,6 +672,55 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・杉山:LEDテープの動作確認
+・橋本:本体の動作確認
+・三井:マイコン側がデータを受け取る処理</t>
+    <rPh sb="1" eb="3">
+      <t>スギヤマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハシモト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ミツイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ボード作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1790,18 +1839,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1811,17 +1860,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2119,7 +2168,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13:D17"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2166,435 +2215,476 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="115">
+      <c r="B3" s="116">
         <v>43364</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="115" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="116"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="118"/>
+      <c r="E4" s="115"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="116"/>
-      <c r="C5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="118"/>
+      <c r="E5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="118"/>
+      <c r="E6" s="115"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="118"/>
+      <c r="E7" s="115"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="115">
+      <c r="B8" s="116">
         <v>43371</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="115" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="116"/>
-      <c r="C9" s="118"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="118"/>
+      <c r="E9" s="115"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="116"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="118"/>
+      <c r="E10" s="115"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="116"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="118"/>
+      <c r="E11" s="115"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="118"/>
+      <c r="E12" s="115"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="115">
+      <c r="B13" s="116">
         <v>43378</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="118"/>
+      <c r="C13" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="116"/>
-      <c r="C14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="118"/>
+      <c r="E14" s="115"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="116"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="118"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="116"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="118"/>
+      <c r="E16" s="115"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="118"/>
+      <c r="E17" s="115"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="115">
+      <c r="B18" s="116">
         <v>43385</v>
       </c>
-      <c r="C18" s="118"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="119"/>
-      <c r="E18" s="118"/>
+      <c r="E18" s="115"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="116"/>
-      <c r="C19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="118"/>
+      <c r="E19" s="115"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="116"/>
-      <c r="C20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="118"/>
+      <c r="E20" s="115"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="116"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="118"/>
+      <c r="E21" s="115"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="118"/>
+      <c r="E22" s="115"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="115">
+      <c r="B23" s="116">
         <v>43392</v>
       </c>
-      <c r="C23" s="118"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="119"/>
-      <c r="E23" s="118"/>
+      <c r="E23" s="115"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="116"/>
-      <c r="C24" s="118"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="115"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="116"/>
-      <c r="C25" s="118"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="118"/>
+      <c r="E25" s="115"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="116"/>
-      <c r="C26" s="118"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="118"/>
+      <c r="E26" s="115"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="118"/>
+      <c r="E27" s="115"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="115">
+      <c r="B28" s="116">
         <v>43399</v>
       </c>
-      <c r="C28" s="118"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="119"/>
-      <c r="E28" s="118"/>
+      <c r="E28" s="115"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="116"/>
-      <c r="C29" s="118"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="118"/>
+      <c r="E29" s="115"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="116"/>
-      <c r="C30" s="118"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="118"/>
+      <c r="E30" s="115"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="116"/>
-      <c r="C31" s="118"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="118"/>
+      <c r="E31" s="115"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="118"/>
+      <c r="E32" s="115"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="115">
+      <c r="B33" s="116">
         <v>43406</v>
       </c>
-      <c r="C33" s="118"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="119"/>
-      <c r="E33" s="118"/>
+      <c r="E33" s="115"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="116"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="118"/>
+      <c r="E34" s="115"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="116"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="118"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="116"/>
-      <c r="C36" s="118"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="118"/>
+      <c r="E36" s="115"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="118"/>
+      <c r="E37" s="115"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="115">
+      <c r="B38" s="116">
         <v>43413</v>
       </c>
-      <c r="C38" s="118"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="119"/>
-      <c r="E38" s="118"/>
+      <c r="E38" s="115"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="116"/>
-      <c r="C39" s="118"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="118"/>
+      <c r="E39" s="115"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="116"/>
-      <c r="C40" s="118"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="118"/>
+      <c r="E40" s="115"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="116"/>
-      <c r="C41" s="118"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="118"/>
+      <c r="E41" s="115"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="118"/>
+      <c r="E42" s="115"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="115">
+      <c r="B43" s="116">
         <v>43420</v>
       </c>
-      <c r="C43" s="118"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="119"/>
-      <c r="E43" s="118"/>
+      <c r="E43" s="115"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="116"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="118"/>
+      <c r="E44" s="115"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="116"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="118"/>
+      <c r="E45" s="115"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="116"/>
-      <c r="C46" s="118"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="115"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="118"/>
+      <c r="E46" s="115"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="118"/>
+      <c r="E47" s="115"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="115">
+      <c r="B48" s="116">
         <v>43427</v>
       </c>
-      <c r="C48" s="118"/>
+      <c r="C48" s="115"/>
       <c r="D48" s="119"/>
-      <c r="E48" s="118"/>
+      <c r="E48" s="115"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="116"/>
-      <c r="C49" s="118"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="115"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="118"/>
+      <c r="E49" s="115"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="116"/>
-      <c r="C50" s="118"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="118"/>
+      <c r="E50" s="115"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="116"/>
-      <c r="C51" s="118"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="115"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="118"/>
+      <c r="E51" s="115"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="118"/>
+      <c r="E52" s="115"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="115">
+      <c r="B53" s="116">
         <v>43434</v>
       </c>
-      <c r="C53" s="118"/>
+      <c r="C53" s="115"/>
       <c r="D53" s="119"/>
-      <c r="E53" s="118"/>
+      <c r="E53" s="115"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="116"/>
-      <c r="C54" s="118"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="115"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="118"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="116"/>
-      <c r="C55" s="118"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="115"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="118"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="116"/>
-      <c r="C56" s="118"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="115"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="118"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="117"/>
-      <c r="C57" s="118"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="118"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="115">
+      <c r="B58" s="116">
         <v>43441</v>
       </c>
-      <c r="C58" s="118"/>
+      <c r="C58" s="115"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="118"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="116"/>
-      <c r="C59" s="118"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="115"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="118"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="116"/>
-      <c r="C60" s="118"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="115"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="118"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="116"/>
-      <c r="C61" s="118"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="115"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="118"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="117"/>
-      <c r="C62" s="118"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="115"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="118"/>
+      <c r="E62" s="115"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="115">
+      <c r="B63" s="116">
         <v>43448</v>
       </c>
-      <c r="C63" s="118"/>
+      <c r="C63" s="115"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="118"/>
+      <c r="E63" s="115"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="116"/>
-      <c r="C64" s="118"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="115"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="118"/>
+      <c r="E64" s="115"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="116"/>
-      <c r="C65" s="118"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="118"/>
+      <c r="E65" s="115"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="116"/>
-      <c r="C66" s="118"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="118"/>
+      <c r="E66" s="115"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="117"/>
-      <c r="C67" s="118"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="115"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="118"/>
+      <c r="E67" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2611,43 +2701,6 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2819,51 +2872,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124" t="s">
+      <c r="F4" s="122"/>
+      <c r="G4" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124" t="s">
+      <c r="H4" s="122"/>
+      <c r="I4" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124" t="s">
+      <c r="J4" s="122"/>
+      <c r="K4" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124" t="s">
+      <c r="L4" s="122"/>
+      <c r="M4" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124" t="s">
+      <c r="N4" s="122"/>
+      <c r="O4" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124" t="s">
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124" t="s">
+      <c r="R4" s="122"/>
+      <c r="S4" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124" t="s">
+      <c r="T4" s="122"/>
+      <c r="U4" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124" t="s">
+      <c r="V4" s="122"/>
+      <c r="W4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124" t="s">
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="125"/>
+      <c r="Z4" s="123"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -2875,7 +2928,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="124" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2918,7 +2971,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="123"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -2957,7 +3010,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="123"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -2996,7 +3049,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="123"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3035,7 +3088,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="123"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3074,7 +3127,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="123"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -3772,7 +3825,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3813,7 +3866,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="123"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -3852,7 +3905,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="123"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -3891,7 +3944,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="123"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -3930,7 +3983,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="123"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -3969,7 +4022,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="123"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4317,6 +4370,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4329,11 +4387,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C0DB8C-C202-48F8-BE25-6536AF274B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59637D56-30DF-453F-BDED-B0AF3F28E1D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -672,55 +672,6 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・杉山:LEDテープの動作確認
-・橋本:本体の動作確認
-・三井:マイコン側がデータを受け取る処理</t>
-    <rPh sb="1" eb="3">
-      <t>スギヤマ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハシモト</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホンタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ミツイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ボード作成</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1839,18 +1790,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1860,17 +1811,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2168,7 +2119,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13:E17"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2215,476 +2166,435 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="116">
+      <c r="B3" s="115">
         <v>43364</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="118" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="117"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="115"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="117"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="115"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="117"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="115"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="118"/>
-      <c r="C7" s="115"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="115"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="116">
+      <c r="B8" s="115">
         <v>43371</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="118" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="118"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="117"/>
-      <c r="C10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="117"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="118"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="118"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="116">
+      <c r="B13" s="115">
         <v>43378</v>
       </c>
-      <c r="C13" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="115"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="117"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="117"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="117"/>
-      <c r="C16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="118"/>
-      <c r="C17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="118"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="116">
+      <c r="B18" s="115">
         <v>43385</v>
       </c>
-      <c r="C18" s="115"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="119"/>
-      <c r="E18" s="115"/>
+      <c r="E18" s="118"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="117"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="118"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="117"/>
-      <c r="C20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="118"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="117"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="118"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="118"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="118"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="116">
+      <c r="B23" s="115">
         <v>43392</v>
       </c>
-      <c r="C23" s="115"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="119"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="118"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="117"/>
-      <c r="C24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="118"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="117"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="117"/>
-      <c r="C26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="118"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="118"/>
-      <c r="C27" s="115"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="118"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="116">
+      <c r="B28" s="115">
         <v>43399</v>
       </c>
-      <c r="C28" s="115"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="119"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="118"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="117"/>
-      <c r="C29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="118"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="117"/>
-      <c r="C30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="118"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="117"/>
-      <c r="C31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="118"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="118"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="116">
+      <c r="B33" s="115">
         <v>43406</v>
       </c>
-      <c r="C33" s="115"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="119"/>
-      <c r="E33" s="115"/>
+      <c r="E33" s="118"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="117"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="115"/>
+      <c r="E34" s="118"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="117"/>
-      <c r="C35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="115"/>
+      <c r="E35" s="118"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="117"/>
-      <c r="C36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="115"/>
+      <c r="E36" s="118"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="115"/>
+      <c r="E37" s="118"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="116">
+      <c r="B38" s="115">
         <v>43413</v>
       </c>
-      <c r="C38" s="115"/>
+      <c r="C38" s="118"/>
       <c r="D38" s="119"/>
-      <c r="E38" s="115"/>
+      <c r="E38" s="118"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="117"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="115"/>
+      <c r="E39" s="118"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="117"/>
-      <c r="C40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="115"/>
+      <c r="E40" s="118"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="117"/>
-      <c r="C41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="115"/>
+      <c r="E41" s="118"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="115"/>
+      <c r="E42" s="118"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="116">
+      <c r="B43" s="115">
         <v>43420</v>
       </c>
-      <c r="C43" s="115"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="119"/>
-      <c r="E43" s="115"/>
+      <c r="E43" s="118"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="117"/>
-      <c r="C44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="115"/>
+      <c r="E44" s="118"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="117"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="115"/>
+      <c r="E45" s="118"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="117"/>
-      <c r="C46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="115"/>
+      <c r="E46" s="118"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="115"/>
+      <c r="E47" s="118"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="116">
+      <c r="B48" s="115">
         <v>43427</v>
       </c>
-      <c r="C48" s="115"/>
+      <c r="C48" s="118"/>
       <c r="D48" s="119"/>
-      <c r="E48" s="115"/>
+      <c r="E48" s="118"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="117"/>
-      <c r="C49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="115"/>
+      <c r="E49" s="118"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="117"/>
-      <c r="C50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="115"/>
+      <c r="E50" s="118"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="117"/>
-      <c r="C51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="115"/>
+      <c r="E51" s="118"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="115"/>
+      <c r="E52" s="118"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="116">
+      <c r="B53" s="115">
         <v>43434</v>
       </c>
-      <c r="C53" s="115"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="119"/>
-      <c r="E53" s="115"/>
+      <c r="E53" s="118"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="117"/>
-      <c r="C54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="115"/>
+      <c r="E54" s="118"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="117"/>
-      <c r="C55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="115"/>
+      <c r="E55" s="118"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="117"/>
-      <c r="C56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="115"/>
+      <c r="E56" s="118"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="115"/>
+      <c r="E57" s="118"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="116">
+      <c r="B58" s="115">
         <v>43441</v>
       </c>
-      <c r="C58" s="115"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="115"/>
+      <c r="E58" s="118"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="117"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="115"/>
+      <c r="E59" s="118"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="117"/>
-      <c r="C60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="115"/>
+      <c r="E60" s="118"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="117"/>
-      <c r="C61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="115"/>
+      <c r="E61" s="118"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="118"/>
-      <c r="C62" s="115"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="115"/>
+      <c r="E62" s="118"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="116">
+      <c r="B63" s="115">
         <v>43448</v>
       </c>
-      <c r="C63" s="115"/>
+      <c r="C63" s="118"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="115"/>
+      <c r="E63" s="118"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="117"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="115"/>
+      <c r="E64" s="118"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="117"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="115"/>
+      <c r="E65" s="118"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="117"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="115"/>
+      <c r="E66" s="118"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="118"/>
-      <c r="C67" s="115"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="115"/>
+      <c r="E67" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2701,6 +2611,43 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2872,51 +2819,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122" t="s">
+      <c r="F4" s="124"/>
+      <c r="G4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122" t="s">
+      <c r="H4" s="124"/>
+      <c r="I4" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122" t="s">
+      <c r="J4" s="124"/>
+      <c r="K4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122" t="s">
+      <c r="L4" s="124"/>
+      <c r="M4" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122" t="s">
+      <c r="N4" s="124"/>
+      <c r="O4" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122" t="s">
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122" t="s">
+      <c r="R4" s="124"/>
+      <c r="S4" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122" t="s">
+      <c r="T4" s="124"/>
+      <c r="U4" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122" t="s">
+      <c r="V4" s="124"/>
+      <c r="W4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122" t="s">
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="123"/>
+      <c r="Z4" s="125"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -2928,7 +2875,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="122" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2971,7 +2918,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="125"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -3010,7 +2957,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="125"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -3049,7 +2996,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="125"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3088,7 +3035,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="125"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3127,7 +3074,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="125"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -3825,7 +3772,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="122" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3866,7 +3813,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="125"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -3905,7 +3852,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="125"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -3944,7 +3891,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="125"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -3983,7 +3930,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="125"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -4022,7 +3969,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="125"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4370,11 +4317,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4387,6 +4329,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C0DB8C-C202-48F8-BE25-6536AF274B30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -724,11 +723,52 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>・杉山：LEDテープの動作確認
+・橋本：アプリに動作を追加
+・三井：アプリを改修</t>
+    <rPh sb="1" eb="3">
+      <t>スギヤマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハシモト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ミツイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最終チェック</t>
+    <rPh sb="1" eb="3">
+      <t>サイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・いのちだいじに</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日(&quot;aaa&quot;)&quot;"/>
   </numFmts>
@@ -1839,18 +1879,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1860,17 +1900,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2160,7 +2200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
@@ -2168,7 +2208,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13:E17"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2215,476 +2255,445 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="116">
+      <c r="B3" s="115">
         <v>43364</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="118" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="117"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="115"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="117"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="115"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="117"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="115"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="118"/>
-      <c r="C7" s="115"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="115"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="116">
+      <c r="B8" s="115">
         <v>43371</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="118" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="118"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="117"/>
-      <c r="C10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="117"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="118"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="118"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="116">
+      <c r="B13" s="115">
         <v>43378</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="118" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="115"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="117"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="117"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="117"/>
-      <c r="C16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="118"/>
-      <c r="C17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="118"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="116">
+      <c r="B18" s="115">
         <v>43385</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="115"/>
+      <c r="C18" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="118" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="117"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="118"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="117"/>
-      <c r="C20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="118"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="117"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="118"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="118"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="118"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="116">
+      <c r="B23" s="115">
         <v>43392</v>
       </c>
-      <c r="C23" s="115"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="119"/>
-      <c r="E23" s="115"/>
+      <c r="E23" s="118"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="117"/>
-      <c r="C24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="118"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="117"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="117"/>
-      <c r="C26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="118"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="118"/>
-      <c r="C27" s="115"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="118"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="116">
+      <c r="B28" s="115">
         <v>43399</v>
       </c>
-      <c r="C28" s="115"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="119"/>
-      <c r="E28" s="115"/>
+      <c r="E28" s="118"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="117"/>
-      <c r="C29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="118"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="117"/>
-      <c r="C30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="118"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="117"/>
-      <c r="C31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="118"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="118"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="116">
+      <c r="B33" s="115">
         <v>43406</v>
       </c>
-      <c r="C33" s="115"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="119"/>
-      <c r="E33" s="115"/>
+      <c r="E33" s="118"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="117"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="115"/>
+      <c r="E34" s="118"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="117"/>
-      <c r="C35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="115"/>
+      <c r="E35" s="118"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="117"/>
-      <c r="C36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="115"/>
+      <c r="E36" s="118"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="115"/>
+      <c r="E37" s="118"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="116">
+      <c r="B38" s="115">
         <v>43413</v>
       </c>
-      <c r="C38" s="115"/>
+      <c r="C38" s="118"/>
       <c r="D38" s="119"/>
-      <c r="E38" s="115"/>
+      <c r="E38" s="118"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="117"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="115"/>
+      <c r="E39" s="118"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="117"/>
-      <c r="C40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="115"/>
+      <c r="E40" s="118"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="117"/>
-      <c r="C41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="115"/>
+      <c r="E41" s="118"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="115"/>
+      <c r="E42" s="118"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="116">
+      <c r="B43" s="115">
         <v>43420</v>
       </c>
-      <c r="C43" s="115"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="119"/>
-      <c r="E43" s="115"/>
+      <c r="E43" s="118"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="117"/>
-      <c r="C44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="115"/>
+      <c r="E44" s="118"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="117"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="115"/>
+      <c r="E45" s="118"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="117"/>
-      <c r="C46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="115"/>
+      <c r="E46" s="118"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="115"/>
+      <c r="E47" s="118"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="116">
+      <c r="B48" s="115">
         <v>43427</v>
       </c>
-      <c r="C48" s="115"/>
+      <c r="C48" s="118"/>
       <c r="D48" s="119"/>
-      <c r="E48" s="115"/>
+      <c r="E48" s="118"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="117"/>
-      <c r="C49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="115"/>
+      <c r="E49" s="118"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="117"/>
-      <c r="C50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="115"/>
+      <c r="E50" s="118"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="117"/>
-      <c r="C51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="115"/>
+      <c r="E51" s="118"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="115"/>
+      <c r="E52" s="118"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="116">
+      <c r="B53" s="115">
         <v>43434</v>
       </c>
-      <c r="C53" s="115"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="119"/>
-      <c r="E53" s="115"/>
+      <c r="E53" s="118"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="117"/>
-      <c r="C54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="115"/>
+      <c r="E54" s="118"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="117"/>
-      <c r="C55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="115"/>
+      <c r="E55" s="118"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="117"/>
-      <c r="C56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="115"/>
+      <c r="E56" s="118"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="115"/>
+      <c r="E57" s="118"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="116">
+      <c r="B58" s="115">
         <v>43441</v>
       </c>
-      <c r="C58" s="115"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="115"/>
+      <c r="E58" s="118"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="117"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="115"/>
+      <c r="E59" s="118"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="117"/>
-      <c r="C60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="115"/>
+      <c r="E60" s="118"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="117"/>
-      <c r="C61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="115"/>
+      <c r="E61" s="118"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="118"/>
-      <c r="C62" s="115"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="115"/>
+      <c r="E62" s="118"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="116">
+      <c r="B63" s="115">
         <v>43448</v>
       </c>
-      <c r="C63" s="115"/>
+      <c r="C63" s="118"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="115"/>
+      <c r="E63" s="118"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="117"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="115"/>
+      <c r="E64" s="118"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="117"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="115"/>
+      <c r="E65" s="118"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="117"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="115"/>
+      <c r="E66" s="118"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="118"/>
-      <c r="C67" s="115"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="115"/>
+      <c r="E67" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2701,6 +2710,43 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2709,7 +2755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2872,51 +2918,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122" t="s">
+      <c r="F4" s="124"/>
+      <c r="G4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122" t="s">
+      <c r="H4" s="124"/>
+      <c r="I4" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122" t="s">
+      <c r="J4" s="124"/>
+      <c r="K4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122" t="s">
+      <c r="L4" s="124"/>
+      <c r="M4" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122" t="s">
+      <c r="N4" s="124"/>
+      <c r="O4" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122" t="s">
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122" t="s">
+      <c r="R4" s="124"/>
+      <c r="S4" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122" t="s">
+      <c r="T4" s="124"/>
+      <c r="U4" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122" t="s">
+      <c r="V4" s="124"/>
+      <c r="W4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122" t="s">
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="123"/>
+      <c r="Z4" s="125"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -2928,7 +2974,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="122" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2971,7 +3017,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="125"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -3010,7 +3056,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="125"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -3049,7 +3095,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="125"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3088,7 +3134,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="125"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3127,7 +3173,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="125"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -3825,7 +3871,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="122" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3866,7 +3912,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="125"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -3905,7 +3951,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="125"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -3944,7 +3990,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="125"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -3983,7 +4029,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="125"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -4022,7 +4068,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="125"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4370,11 +4416,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4387,6 +4428,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -762,6 +762,23 @@
   </si>
   <si>
     <t>・いのちだいじに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工大祭</t>
+    <rPh sb="0" eb="2">
+      <t>コウダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDテープでボードの作成</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1879,18 +1896,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1900,17 +1917,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2204,11 +2221,11 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18:E22"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2255,445 +2272,486 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="115">
+      <c r="B3" s="116">
         <v>43364</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="115" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="116"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="118"/>
+      <c r="E4" s="115"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="116"/>
-      <c r="C5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="118"/>
+      <c r="E5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="118"/>
+      <c r="E6" s="115"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="118"/>
+      <c r="E7" s="115"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="115">
+      <c r="B8" s="116">
         <v>43371</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="115" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="116"/>
-      <c r="C9" s="118"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="118"/>
+      <c r="E9" s="115"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="116"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="118"/>
+      <c r="E10" s="115"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="116"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="118"/>
+      <c r="E11" s="115"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="118"/>
+      <c r="E12" s="115"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="115">
+      <c r="B13" s="116">
         <v>43378</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="115" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="116"/>
-      <c r="C14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="118"/>
+      <c r="E14" s="115"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="116"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="118"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="116"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="118"/>
+      <c r="E16" s="115"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="118"/>
+      <c r="E17" s="115"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="115">
+      <c r="B18" s="116">
         <v>43385</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="115" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="115" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="116"/>
-      <c r="C19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="118"/>
+      <c r="E19" s="115"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="116"/>
-      <c r="C20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="118"/>
+      <c r="E20" s="115"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="116"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="118"/>
+      <c r="E21" s="115"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="118"/>
+      <c r="E22" s="115"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="115">
+      <c r="B23" s="116">
         <v>43392</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="118"/>
+      <c r="C23" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="115"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="116"/>
-      <c r="C24" s="118"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="115"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="116"/>
-      <c r="C25" s="118"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="118"/>
+      <c r="E25" s="115"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="116"/>
-      <c r="C26" s="118"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="118"/>
+      <c r="E26" s="115"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="118"/>
+      <c r="E27" s="115"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="115">
+      <c r="B28" s="116">
         <v>43399</v>
       </c>
-      <c r="C28" s="118"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="119"/>
-      <c r="E28" s="118"/>
+      <c r="E28" s="115"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="116"/>
-      <c r="C29" s="118"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="118"/>
+      <c r="E29" s="115"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="116"/>
-      <c r="C30" s="118"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="118"/>
+      <c r="E30" s="115"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="116"/>
-      <c r="C31" s="118"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="118"/>
+      <c r="E31" s="115"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="118"/>
+      <c r="E32" s="115"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="115">
+      <c r="B33" s="116">
         <v>43406</v>
       </c>
-      <c r="C33" s="118"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="119"/>
-      <c r="E33" s="118"/>
+      <c r="E33" s="115"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="116"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="118"/>
+      <c r="E34" s="115"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="116"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="118"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="116"/>
-      <c r="C36" s="118"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="118"/>
+      <c r="E36" s="115"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="118"/>
+      <c r="E37" s="115"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="115">
+      <c r="B38" s="116">
         <v>43413</v>
       </c>
-      <c r="C38" s="118"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="119"/>
-      <c r="E38" s="118"/>
+      <c r="E38" s="115"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="116"/>
-      <c r="C39" s="118"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="118"/>
+      <c r="E39" s="115"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="116"/>
-      <c r="C40" s="118"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="118"/>
+      <c r="E40" s="115"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="116"/>
-      <c r="C41" s="118"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="118"/>
+      <c r="E41" s="115"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="118"/>
+      <c r="E42" s="115"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="115">
+      <c r="B43" s="116">
         <v>43420</v>
       </c>
-      <c r="C43" s="118"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="119"/>
-      <c r="E43" s="118"/>
+      <c r="E43" s="115"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="116"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="118"/>
+      <c r="E44" s="115"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="116"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="118"/>
+      <c r="E45" s="115"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="116"/>
-      <c r="C46" s="118"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="115"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="118"/>
+      <c r="E46" s="115"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="118"/>
+      <c r="E47" s="115"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="115">
+      <c r="B48" s="116">
         <v>43427</v>
       </c>
-      <c r="C48" s="118"/>
+      <c r="C48" s="115"/>
       <c r="D48" s="119"/>
-      <c r="E48" s="118"/>
+      <c r="E48" s="115"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="116"/>
-      <c r="C49" s="118"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="115"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="118"/>
+      <c r="E49" s="115"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="116"/>
-      <c r="C50" s="118"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="118"/>
+      <c r="E50" s="115"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="116"/>
-      <c r="C51" s="118"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="115"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="118"/>
+      <c r="E51" s="115"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="118"/>
+      <c r="E52" s="115"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="115">
+      <c r="B53" s="116">
         <v>43434</v>
       </c>
-      <c r="C53" s="118"/>
+      <c r="C53" s="115"/>
       <c r="D53" s="119"/>
-      <c r="E53" s="118"/>
+      <c r="E53" s="115"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="116"/>
-      <c r="C54" s="118"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="115"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="118"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="116"/>
-      <c r="C55" s="118"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="115"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="118"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="116"/>
-      <c r="C56" s="118"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="115"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="118"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="117"/>
-      <c r="C57" s="118"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="118"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="115">
+      <c r="B58" s="116">
         <v>43441</v>
       </c>
-      <c r="C58" s="118"/>
+      <c r="C58" s="115"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="118"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="116"/>
-      <c r="C59" s="118"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="115"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="118"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="116"/>
-      <c r="C60" s="118"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="115"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="118"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="116"/>
-      <c r="C61" s="118"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="115"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="118"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="117"/>
-      <c r="C62" s="118"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="115"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="118"/>
+      <c r="E62" s="115"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="115">
+      <c r="B63" s="116">
         <v>43448</v>
       </c>
-      <c r="C63" s="118"/>
+      <c r="C63" s="115"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="118"/>
+      <c r="E63" s="115"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="116"/>
-      <c r="C64" s="118"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="115"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="118"/>
+      <c r="E64" s="115"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="116"/>
-      <c r="C65" s="118"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="118"/>
+      <c r="E65" s="115"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="116"/>
-      <c r="C66" s="118"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="118"/>
+      <c r="E66" s="115"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="117"/>
-      <c r="C67" s="118"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="115"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="118"/>
+      <c r="E67" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2710,43 +2768,6 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2918,51 +2939,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124" t="s">
+      <c r="F4" s="122"/>
+      <c r="G4" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124" t="s">
+      <c r="H4" s="122"/>
+      <c r="I4" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124" t="s">
+      <c r="J4" s="122"/>
+      <c r="K4" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124" t="s">
+      <c r="L4" s="122"/>
+      <c r="M4" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124" t="s">
+      <c r="N4" s="122"/>
+      <c r="O4" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124" t="s">
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124" t="s">
+      <c r="R4" s="122"/>
+      <c r="S4" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124" t="s">
+      <c r="T4" s="122"/>
+      <c r="U4" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124" t="s">
+      <c r="V4" s="122"/>
+      <c r="W4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124" t="s">
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="125"/>
+      <c r="Z4" s="123"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -2974,7 +2995,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="124" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -3017,7 +3038,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="123"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -3056,7 +3077,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="123"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -3095,7 +3116,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="123"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3134,7 +3155,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="123"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3173,7 +3194,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="123"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -3871,7 +3892,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3912,7 +3933,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="123"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -3951,7 +3972,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="123"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -3990,7 +4011,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="123"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -4029,7 +4050,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="123"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -4068,7 +4089,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="123"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4416,6 +4437,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4428,11 +4454,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -778,6 +778,32 @@
     <t>LEDテープでボードの作成</t>
     <rPh sb="11" eb="13">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT加賀に向けての話し合い</t>
+    <rPh sb="2" eb="4">
+      <t>カガ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dプリンター勉強会への参加</t>
+    <rPh sb="7" eb="10">
+      <t>ベンキョウカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1896,18 +1922,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1917,17 +1943,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2221,11 +2247,11 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23:C27"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2272,486 +2298,453 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="116">
+      <c r="B3" s="115">
         <v>43364</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="118" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="117"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="115"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="117"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="115"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="117"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="115"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="118"/>
-      <c r="C7" s="115"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="115"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="116">
+      <c r="B8" s="115">
         <v>43371</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="118" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="118"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="117"/>
-      <c r="C10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="117"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="118"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="118"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="116">
+      <c r="B13" s="115">
         <v>43378</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="118" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="115"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="117"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="117"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="117"/>
-      <c r="C16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="118"/>
-      <c r="C17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="118"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="116">
+      <c r="B18" s="115">
         <v>43385</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="118" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="118" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="117"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="118"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="117"/>
-      <c r="C20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="118"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="117"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="118"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="118"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="118"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="116">
+      <c r="B23" s="115">
         <v>43392</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="118" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="118"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="117"/>
-      <c r="C24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="118"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="117"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="117"/>
-      <c r="C26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="118"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="118"/>
-      <c r="C27" s="115"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="118"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="116">
+      <c r="B28" s="115">
         <v>43399</v>
       </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="115"/>
+      <c r="C28" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="118"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="117"/>
-      <c r="C29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="118"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="117"/>
-      <c r="C30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="118"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="117"/>
-      <c r="C31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="118"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="118"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="116">
+      <c r="B33" s="115">
         <v>43406</v>
       </c>
-      <c r="C33" s="115"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="119"/>
-      <c r="E33" s="115"/>
+      <c r="E33" s="118"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="117"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="115"/>
+      <c r="E34" s="118"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="117"/>
-      <c r="C35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="115"/>
+      <c r="E35" s="118"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="117"/>
-      <c r="C36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="115"/>
+      <c r="E36" s="118"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="115"/>
+      <c r="E37" s="118"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="116">
+      <c r="B38" s="115">
         <v>43413</v>
       </c>
-      <c r="C38" s="115"/>
+      <c r="C38" s="118"/>
       <c r="D38" s="119"/>
-      <c r="E38" s="115"/>
+      <c r="E38" s="118"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="117"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="115"/>
+      <c r="E39" s="118"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="117"/>
-      <c r="C40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="115"/>
+      <c r="E40" s="118"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="117"/>
-      <c r="C41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="115"/>
+      <c r="E41" s="118"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="115"/>
+      <c r="E42" s="118"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="116">
+      <c r="B43" s="115">
         <v>43420</v>
       </c>
-      <c r="C43" s="115"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="119"/>
-      <c r="E43" s="115"/>
+      <c r="E43" s="118"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="117"/>
-      <c r="C44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="115"/>
+      <c r="E44" s="118"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="117"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="115"/>
+      <c r="E45" s="118"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="117"/>
-      <c r="C46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="115"/>
+      <c r="E46" s="118"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="115"/>
+      <c r="E47" s="118"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="116">
+      <c r="B48" s="115">
         <v>43427</v>
       </c>
-      <c r="C48" s="115"/>
+      <c r="C48" s="118"/>
       <c r="D48" s="119"/>
-      <c r="E48" s="115"/>
+      <c r="E48" s="118"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="117"/>
-      <c r="C49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="115"/>
+      <c r="E49" s="118"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="117"/>
-      <c r="C50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="115"/>
+      <c r="E50" s="118"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="117"/>
-      <c r="C51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="115"/>
+      <c r="E51" s="118"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="115"/>
+      <c r="E52" s="118"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="116">
+      <c r="B53" s="115">
         <v>43434</v>
       </c>
-      <c r="C53" s="115"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="119"/>
-      <c r="E53" s="115"/>
+      <c r="E53" s="118"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="117"/>
-      <c r="C54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="115"/>
+      <c r="E54" s="118"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="117"/>
-      <c r="C55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="115"/>
+      <c r="E55" s="118"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="117"/>
-      <c r="C56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="115"/>
+      <c r="E56" s="118"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="115"/>
+      <c r="E57" s="118"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="116">
+      <c r="B58" s="115">
         <v>43441</v>
       </c>
-      <c r="C58" s="115"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="115"/>
+      <c r="E58" s="118"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="117"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="115"/>
+      <c r="E59" s="118"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="117"/>
-      <c r="C60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="115"/>
+      <c r="E60" s="118"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="117"/>
-      <c r="C61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="115"/>
+      <c r="E61" s="118"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="118"/>
-      <c r="C62" s="115"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="115"/>
+      <c r="E62" s="118"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="116">
+      <c r="B63" s="115">
         <v>43448</v>
       </c>
-      <c r="C63" s="115"/>
+      <c r="C63" s="118"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="115"/>
+      <c r="E63" s="118"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="117"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="115"/>
+      <c r="E64" s="118"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="117"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="115"/>
+      <c r="E65" s="118"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="117"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="115"/>
+      <c r="E66" s="118"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="118"/>
-      <c r="C67" s="115"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="115"/>
+      <c r="E67" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2768,6 +2761,43 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2939,51 +2969,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122" t="s">
+      <c r="F4" s="124"/>
+      <c r="G4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122" t="s">
+      <c r="H4" s="124"/>
+      <c r="I4" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122" t="s">
+      <c r="J4" s="124"/>
+      <c r="K4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122" t="s">
+      <c r="L4" s="124"/>
+      <c r="M4" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122" t="s">
+      <c r="N4" s="124"/>
+      <c r="O4" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122" t="s">
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122" t="s">
+      <c r="R4" s="124"/>
+      <c r="S4" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122" t="s">
+      <c r="T4" s="124"/>
+      <c r="U4" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122" t="s">
+      <c r="V4" s="124"/>
+      <c r="W4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122" t="s">
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="123"/>
+      <c r="Z4" s="125"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -2995,7 +3025,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="122" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -3038,7 +3068,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="125"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -3077,7 +3107,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="125"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -3116,7 +3146,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="125"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3155,7 +3185,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="125"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3194,7 +3224,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="125"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -3892,7 +3922,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="122" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3933,7 +3963,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="125"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -3972,7 +4002,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="125"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -4011,7 +4041,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="125"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -4050,7 +4080,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="125"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -4089,7 +4119,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="125"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4437,11 +4467,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4454,6 +4479,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -804,6 +804,29 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dプリンター勉強会への参加</t>
+    <rPh sb="7" eb="10">
+      <t>ベンキョウカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT加賀に向けての開発物の具体化</t>
+    <rPh sb="9" eb="11">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>グタイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1922,18 +1945,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1943,17 +1966,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2247,11 +2270,11 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28:E32"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2298,453 +2321,494 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="115">
+      <c r="B3" s="116">
         <v>43364</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="115" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="116"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="118"/>
+      <c r="E4" s="115"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="116"/>
-      <c r="C5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="118"/>
+      <c r="E5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="118"/>
+      <c r="E6" s="115"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="118"/>
+      <c r="E7" s="115"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="115">
+      <c r="B8" s="116">
         <v>43371</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="115" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="116"/>
-      <c r="C9" s="118"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="118"/>
+      <c r="E9" s="115"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="116"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="118"/>
+      <c r="E10" s="115"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="116"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="118"/>
+      <c r="E11" s="115"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="118"/>
+      <c r="E12" s="115"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="115">
+      <c r="B13" s="116">
         <v>43378</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="115" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="116"/>
-      <c r="C14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="118"/>
+      <c r="E14" s="115"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="116"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="118"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="116"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="118"/>
+      <c r="E16" s="115"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="118"/>
+      <c r="E17" s="115"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="115">
+      <c r="B18" s="116">
         <v>43385</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="115" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="115" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="116"/>
-      <c r="C19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="118"/>
+      <c r="E19" s="115"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="116"/>
-      <c r="C20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="118"/>
+      <c r="E20" s="115"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="116"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="118"/>
+      <c r="E21" s="115"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="118"/>
+      <c r="E22" s="115"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="115">
+      <c r="B23" s="116">
         <v>43392</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="115" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="118"/>
+      <c r="E23" s="115"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="116"/>
-      <c r="C24" s="118"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="115"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="116"/>
-      <c r="C25" s="118"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="118"/>
+      <c r="E25" s="115"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="116"/>
-      <c r="C26" s="118"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="118"/>
+      <c r="E26" s="115"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="118"/>
+      <c r="E27" s="115"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="115">
+      <c r="B28" s="116">
         <v>43399</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="115" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="118"/>
+      <c r="E28" s="115"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="116"/>
-      <c r="C29" s="118"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="118"/>
+      <c r="E29" s="115"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="116"/>
-      <c r="C30" s="118"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="118"/>
+      <c r="E30" s="115"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="116"/>
-      <c r="C31" s="118"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="118"/>
+      <c r="E31" s="115"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="118"/>
+      <c r="E32" s="115"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="115">
+      <c r="B33" s="116">
         <v>43406</v>
       </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="118"/>
+      <c r="C33" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="115"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="116"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="118"/>
+      <c r="E34" s="115"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="116"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="118"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="116"/>
-      <c r="C36" s="118"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="118"/>
+      <c r="E36" s="115"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="118"/>
+      <c r="E37" s="115"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="115">
+      <c r="B38" s="116">
         <v>43413</v>
       </c>
-      <c r="C38" s="118"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="119"/>
-      <c r="E38" s="118"/>
+      <c r="E38" s="115"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="116"/>
-      <c r="C39" s="118"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="118"/>
+      <c r="E39" s="115"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="116"/>
-      <c r="C40" s="118"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="118"/>
+      <c r="E40" s="115"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="116"/>
-      <c r="C41" s="118"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="118"/>
+      <c r="E41" s="115"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="118"/>
+      <c r="E42" s="115"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="115">
+      <c r="B43" s="116">
         <v>43420</v>
       </c>
-      <c r="C43" s="118"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="119"/>
-      <c r="E43" s="118"/>
+      <c r="E43" s="115"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="116"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="118"/>
+      <c r="E44" s="115"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="116"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="118"/>
+      <c r="E45" s="115"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="116"/>
-      <c r="C46" s="118"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="115"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="118"/>
+      <c r="E46" s="115"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="118"/>
+      <c r="E47" s="115"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="115">
+      <c r="B48" s="116">
         <v>43427</v>
       </c>
-      <c r="C48" s="118"/>
+      <c r="C48" s="115"/>
       <c r="D48" s="119"/>
-      <c r="E48" s="118"/>
+      <c r="E48" s="115"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="116"/>
-      <c r="C49" s="118"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="115"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="118"/>
+      <c r="E49" s="115"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="116"/>
-      <c r="C50" s="118"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="118"/>
+      <c r="E50" s="115"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="116"/>
-      <c r="C51" s="118"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="115"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="118"/>
+      <c r="E51" s="115"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="118"/>
+      <c r="E52" s="115"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="115">
+      <c r="B53" s="116">
         <v>43434</v>
       </c>
-      <c r="C53" s="118"/>
+      <c r="C53" s="115"/>
       <c r="D53" s="119"/>
-      <c r="E53" s="118"/>
+      <c r="E53" s="115"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="116"/>
-      <c r="C54" s="118"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="115"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="118"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="116"/>
-      <c r="C55" s="118"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="115"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="118"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="116"/>
-      <c r="C56" s="118"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="115"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="118"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="117"/>
-      <c r="C57" s="118"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="118"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="115">
+      <c r="B58" s="116">
         <v>43441</v>
       </c>
-      <c r="C58" s="118"/>
+      <c r="C58" s="115"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="118"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="116"/>
-      <c r="C59" s="118"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="115"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="118"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="116"/>
-      <c r="C60" s="118"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="115"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="118"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="116"/>
-      <c r="C61" s="118"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="115"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="118"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="117"/>
-      <c r="C62" s="118"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="115"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="118"/>
+      <c r="E62" s="115"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="115">
+      <c r="B63" s="116">
         <v>43448</v>
       </c>
-      <c r="C63" s="118"/>
+      <c r="C63" s="115"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="118"/>
+      <c r="E63" s="115"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="116"/>
-      <c r="C64" s="118"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="115"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="118"/>
+      <c r="E64" s="115"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="116"/>
-      <c r="C65" s="118"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="118"/>
+      <c r="E65" s="115"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="116"/>
-      <c r="C66" s="118"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="118"/>
+      <c r="E66" s="115"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="117"/>
-      <c r="C67" s="118"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="115"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="118"/>
+      <c r="E67" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2761,43 +2825,6 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2969,51 +2996,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124" t="s">
+      <c r="F4" s="122"/>
+      <c r="G4" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124" t="s">
+      <c r="H4" s="122"/>
+      <c r="I4" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124" t="s">
+      <c r="J4" s="122"/>
+      <c r="K4" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124" t="s">
+      <c r="L4" s="122"/>
+      <c r="M4" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124" t="s">
+      <c r="N4" s="122"/>
+      <c r="O4" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124" t="s">
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124" t="s">
+      <c r="R4" s="122"/>
+      <c r="S4" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124" t="s">
+      <c r="T4" s="122"/>
+      <c r="U4" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124" t="s">
+      <c r="V4" s="122"/>
+      <c r="W4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124" t="s">
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="125"/>
+      <c r="Z4" s="123"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -3025,7 +3052,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="124" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -3068,7 +3095,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="123"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -3107,7 +3134,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="123"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -3146,7 +3173,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="123"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3185,7 +3212,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="123"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3224,7 +3251,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="123"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -3922,7 +3949,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3963,7 +3990,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="123"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -4002,7 +4029,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="123"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -4041,7 +4068,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="123"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -4080,7 +4107,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="123"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -4119,7 +4146,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="123"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4467,6 +4494,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4479,11 +4511,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -827,6 +827,26 @@
     </rPh>
     <rPh sb="13" eb="16">
       <t>グタイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT加賀に向けてのアイデア出し</t>
+    <rPh sb="2" eb="4">
+      <t>カガ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1945,18 +1965,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1966,17 +1986,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2270,11 +2290,11 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28:D32"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2321,494 +2341,461 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="116">
+      <c r="B3" s="115">
         <v>43364</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="118" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="117"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="115"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="117"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="115"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="117"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="115"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="118"/>
-      <c r="C7" s="115"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="115"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="116">
+      <c r="B8" s="115">
         <v>43371</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="118" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="118"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="117"/>
-      <c r="C10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="117"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="118"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="118"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="116">
+      <c r="B13" s="115">
         <v>43378</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="118" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="115"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="117"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="117"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="117"/>
-      <c r="C16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="118"/>
-      <c r="C17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="118"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="116">
+      <c r="B18" s="115">
         <v>43385</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="118" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="118" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="117"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="118"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="117"/>
-      <c r="C20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="118"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="117"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="118"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="118"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="118"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="116">
+      <c r="B23" s="115">
         <v>43392</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="118" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="118"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="117"/>
-      <c r="C24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="118"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="117"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="117"/>
-      <c r="C26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="118"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="118"/>
-      <c r="C27" s="115"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="118"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="116">
+      <c r="B28" s="115">
         <v>43399</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="118" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="115"/>
+      <c r="E28" s="118"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="117"/>
-      <c r="C29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="118"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="117"/>
-      <c r="C30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="118"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="117"/>
-      <c r="C31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="118"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="118"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="116">
+      <c r="B33" s="115">
         <v>43406</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="118" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="115"/>
+      <c r="E33" s="118"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="117"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="115"/>
+      <c r="E34" s="118"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="117"/>
-      <c r="C35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="115"/>
+      <c r="E35" s="118"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="117"/>
-      <c r="C36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="115"/>
+      <c r="E36" s="118"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="115"/>
+      <c r="E37" s="118"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="116">
+      <c r="B38" s="115">
         <v>43413</v>
       </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="115"/>
+      <c r="C38" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="118"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="117"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="115"/>
+      <c r="E39" s="118"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="117"/>
-      <c r="C40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="115"/>
+      <c r="E40" s="118"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="117"/>
-      <c r="C41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="115"/>
+      <c r="E41" s="118"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="115"/>
+      <c r="E42" s="118"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="116">
+      <c r="B43" s="115">
         <v>43420</v>
       </c>
-      <c r="C43" s="115"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="119"/>
-      <c r="E43" s="115"/>
+      <c r="E43" s="118"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="117"/>
-      <c r="C44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="115"/>
+      <c r="E44" s="118"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="117"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="115"/>
+      <c r="E45" s="118"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="117"/>
-      <c r="C46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="115"/>
+      <c r="E46" s="118"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="115"/>
+      <c r="E47" s="118"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="116">
+      <c r="B48" s="115">
         <v>43427</v>
       </c>
-      <c r="C48" s="115"/>
+      <c r="C48" s="118"/>
       <c r="D48" s="119"/>
-      <c r="E48" s="115"/>
+      <c r="E48" s="118"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="117"/>
-      <c r="C49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="115"/>
+      <c r="E49" s="118"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="117"/>
-      <c r="C50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="115"/>
+      <c r="E50" s="118"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="117"/>
-      <c r="C51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="115"/>
+      <c r="E51" s="118"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="115"/>
+      <c r="E52" s="118"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="116">
+      <c r="B53" s="115">
         <v>43434</v>
       </c>
-      <c r="C53" s="115"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="119"/>
-      <c r="E53" s="115"/>
+      <c r="E53" s="118"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="117"/>
-      <c r="C54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="115"/>
+      <c r="E54" s="118"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="117"/>
-      <c r="C55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="115"/>
+      <c r="E55" s="118"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="117"/>
-      <c r="C56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="115"/>
+      <c r="E56" s="118"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="115"/>
+      <c r="E57" s="118"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="116">
+      <c r="B58" s="115">
         <v>43441</v>
       </c>
-      <c r="C58" s="115"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="115"/>
+      <c r="E58" s="118"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="117"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="115"/>
+      <c r="E59" s="118"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="117"/>
-      <c r="C60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="115"/>
+      <c r="E60" s="118"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="117"/>
-      <c r="C61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="115"/>
+      <c r="E61" s="118"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="118"/>
-      <c r="C62" s="115"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="115"/>
+      <c r="E62" s="118"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="116">
+      <c r="B63" s="115">
         <v>43448</v>
       </c>
-      <c r="C63" s="115"/>
+      <c r="C63" s="118"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="115"/>
+      <c r="E63" s="118"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="117"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="115"/>
+      <c r="E64" s="118"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="117"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="115"/>
+      <c r="E65" s="118"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="117"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="115"/>
+      <c r="E66" s="118"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="118"/>
-      <c r="C67" s="115"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="115"/>
+      <c r="E67" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2825,6 +2812,43 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2996,51 +3020,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122" t="s">
+      <c r="F4" s="124"/>
+      <c r="G4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122" t="s">
+      <c r="H4" s="124"/>
+      <c r="I4" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122" t="s">
+      <c r="J4" s="124"/>
+      <c r="K4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122" t="s">
+      <c r="L4" s="124"/>
+      <c r="M4" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122" t="s">
+      <c r="N4" s="124"/>
+      <c r="O4" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122" t="s">
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122" t="s">
+      <c r="R4" s="124"/>
+      <c r="S4" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122" t="s">
+      <c r="T4" s="124"/>
+      <c r="U4" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122" t="s">
+      <c r="V4" s="124"/>
+      <c r="W4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122" t="s">
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="123"/>
+      <c r="Z4" s="125"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -3052,7 +3076,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="122" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -3095,7 +3119,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="125"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -3134,7 +3158,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="125"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -3173,7 +3197,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="125"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3212,7 +3236,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="125"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3251,7 +3275,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="125"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -3949,7 +3973,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="122" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3990,7 +4014,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="125"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -4029,7 +4053,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="125"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -4068,7 +4092,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="125"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -4107,7 +4131,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="125"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -4146,7 +4170,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="125"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4494,11 +4518,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4511,6 +4530,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -847,6 +847,40 @@
     <t>設計</t>
     <rPh sb="0" eb="2">
       <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査
+発表に向けてのスライド製作</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">外見に使う素材を購入する
+</t>
+    <rPh sb="0" eb="2">
+      <t>ソトミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1965,18 +1999,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1986,17 +2020,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2294,7 +2328,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38:D42"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2341,461 +2375,502 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="115">
+      <c r="B3" s="116">
         <v>43364</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="115" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="116"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="118"/>
+      <c r="E4" s="115"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="116"/>
-      <c r="C5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="118"/>
+      <c r="E5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="118"/>
+      <c r="E6" s="115"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="118"/>
+      <c r="E7" s="115"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="115">
+      <c r="B8" s="116">
         <v>43371</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="115" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="116"/>
-      <c r="C9" s="118"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="118"/>
+      <c r="E9" s="115"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="116"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="118"/>
+      <c r="E10" s="115"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="116"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="118"/>
+      <c r="E11" s="115"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="118"/>
+      <c r="E12" s="115"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="115">
+      <c r="B13" s="116">
         <v>43378</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="115" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="116"/>
-      <c r="C14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="118"/>
+      <c r="E14" s="115"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="116"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="118"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="116"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="118"/>
+      <c r="E16" s="115"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="118"/>
+      <c r="E17" s="115"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="115">
+      <c r="B18" s="116">
         <v>43385</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="115" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="115" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="116"/>
-      <c r="C19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="118"/>
+      <c r="E19" s="115"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="116"/>
-      <c r="C20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="118"/>
+      <c r="E20" s="115"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="116"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="118"/>
+      <c r="E21" s="115"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="118"/>
+      <c r="E22" s="115"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="115">
+      <c r="B23" s="116">
         <v>43392</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="115" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="118"/>
+      <c r="E23" s="115"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="116"/>
-      <c r="C24" s="118"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="115"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="116"/>
-      <c r="C25" s="118"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="118"/>
+      <c r="E25" s="115"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="116"/>
-      <c r="C26" s="118"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="118"/>
+      <c r="E26" s="115"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="118"/>
+      <c r="E27" s="115"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="115">
+      <c r="B28" s="116">
         <v>43399</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="115" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="118"/>
+      <c r="E28" s="115"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="116"/>
-      <c r="C29" s="118"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="118"/>
+      <c r="E29" s="115"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="116"/>
-      <c r="C30" s="118"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="118"/>
+      <c r="E30" s="115"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="116"/>
-      <c r="C31" s="118"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="118"/>
+      <c r="E31" s="115"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="118"/>
+      <c r="E32" s="115"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="115">
+      <c r="B33" s="116">
         <v>43406</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="115" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="118"/>
+      <c r="E33" s="115"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="116"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="118"/>
+      <c r="E34" s="115"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="116"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="118"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="116"/>
-      <c r="C36" s="118"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="118"/>
+      <c r="E36" s="115"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="118"/>
+      <c r="E37" s="115"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="115">
+      <c r="B38" s="116">
         <v>43413</v>
       </c>
-      <c r="C38" s="118" t="s">
+      <c r="C38" s="115" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="118"/>
+      <c r="E38" s="115"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="116"/>
-      <c r="C39" s="118"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="118"/>
+      <c r="E39" s="115"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="116"/>
-      <c r="C40" s="118"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="118"/>
+      <c r="E40" s="115"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="116"/>
-      <c r="C41" s="118"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="118"/>
+      <c r="E41" s="115"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="118"/>
+      <c r="E42" s="115"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="115">
+      <c r="B43" s="116">
         <v>43420</v>
       </c>
-      <c r="C43" s="118"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="118"/>
+      <c r="C43" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="115"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="116"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="118"/>
+      <c r="E44" s="115"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="116"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="118"/>
+      <c r="E45" s="115"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="116"/>
-      <c r="C46" s="118"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="115"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="118"/>
+      <c r="E46" s="115"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="118"/>
+      <c r="E47" s="115"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="115">
+      <c r="B48" s="116">
         <v>43427</v>
       </c>
-      <c r="C48" s="118"/>
+      <c r="C48" s="115"/>
       <c r="D48" s="119"/>
-      <c r="E48" s="118"/>
+      <c r="E48" s="115"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="116"/>
-      <c r="C49" s="118"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="115"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="118"/>
+      <c r="E49" s="115"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="116"/>
-      <c r="C50" s="118"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="118"/>
+      <c r="E50" s="115"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="116"/>
-      <c r="C51" s="118"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="115"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="118"/>
+      <c r="E51" s="115"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="118"/>
+      <c r="E52" s="115"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="115">
+      <c r="B53" s="116">
         <v>43434</v>
       </c>
-      <c r="C53" s="118"/>
+      <c r="C53" s="115"/>
       <c r="D53" s="119"/>
-      <c r="E53" s="118"/>
+      <c r="E53" s="115"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="116"/>
-      <c r="C54" s="118"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="115"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="118"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="116"/>
-      <c r="C55" s="118"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="115"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="118"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="116"/>
-      <c r="C56" s="118"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="115"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="118"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="117"/>
-      <c r="C57" s="118"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="118"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="115">
+      <c r="B58" s="116">
         <v>43441</v>
       </c>
-      <c r="C58" s="118"/>
+      <c r="C58" s="115"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="118"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="116"/>
-      <c r="C59" s="118"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="115"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="118"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="116"/>
-      <c r="C60" s="118"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="115"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="118"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="116"/>
-      <c r="C61" s="118"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="115"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="118"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="117"/>
-      <c r="C62" s="118"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="115"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="118"/>
+      <c r="E62" s="115"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="115">
+      <c r="B63" s="116">
         <v>43448</v>
       </c>
-      <c r="C63" s="118"/>
+      <c r="C63" s="115"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="118"/>
+      <c r="E63" s="115"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="116"/>
-      <c r="C64" s="118"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="115"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="118"/>
+      <c r="E64" s="115"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="116"/>
-      <c r="C65" s="118"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="118"/>
+      <c r="E65" s="115"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="116"/>
-      <c r="C66" s="118"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="118"/>
+      <c r="E66" s="115"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="117"/>
-      <c r="C67" s="118"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="115"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="118"/>
+      <c r="E67" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2812,43 +2887,6 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3020,51 +3058,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124" t="s">
+      <c r="F4" s="122"/>
+      <c r="G4" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124" t="s">
+      <c r="H4" s="122"/>
+      <c r="I4" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124" t="s">
+      <c r="J4" s="122"/>
+      <c r="K4" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124" t="s">
+      <c r="L4" s="122"/>
+      <c r="M4" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124" t="s">
+      <c r="N4" s="122"/>
+      <c r="O4" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124" t="s">
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124" t="s">
+      <c r="R4" s="122"/>
+      <c r="S4" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124" t="s">
+      <c r="T4" s="122"/>
+      <c r="U4" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124" t="s">
+      <c r="V4" s="122"/>
+      <c r="W4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124" t="s">
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="125"/>
+      <c r="Z4" s="123"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -3076,7 +3114,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="124" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -3119,7 +3157,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="123"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -3158,7 +3196,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="123"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -3197,7 +3235,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="123"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3236,7 +3274,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="123"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3275,7 +3313,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="123"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -3973,7 +4011,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -4014,7 +4052,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="123"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -4053,7 +4091,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="123"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -4092,7 +4130,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="123"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -4131,7 +4169,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="123"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -4170,7 +4208,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="123"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4518,6 +4556,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4530,11 +4573,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -881,6 +881,62 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>活動報告会での発表
+LEDテープのプログラム改造</t>
+    <rPh sb="0" eb="2">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホウコクカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT加賀まで活動日残り5回</t>
+    <rPh sb="2" eb="4">
+      <t>カガ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カツドウビ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外見に使う素材を購入する
+本体の作成</t>
+    <rPh sb="0" eb="2">
+      <t>ソトミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホンタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1999,18 +2055,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2020,17 +2076,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2324,7 +2380,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
@@ -2375,502 +2431,471 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="116">
+      <c r="B3" s="115">
         <v>43364</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="118" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="117"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="115"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="117"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="115"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="117"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="115"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="118"/>
-      <c r="C7" s="115"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="115"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="116">
+      <c r="B8" s="115">
         <v>43371</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="118" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="118"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="117"/>
-      <c r="C10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="117"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="118"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="118"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="116">
+      <c r="B13" s="115">
         <v>43378</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="118" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="115"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="117"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="117"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="117"/>
-      <c r="C16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="118"/>
-      <c r="C17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="118"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="116">
+      <c r="B18" s="115">
         <v>43385</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="118" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="118" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="117"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="118"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="117"/>
-      <c r="C20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="118"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="117"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="118"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="118"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="118"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="116">
+      <c r="B23" s="115">
         <v>43392</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="118" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="118"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="117"/>
-      <c r="C24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="118"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="117"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="117"/>
-      <c r="C26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="118"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="118"/>
-      <c r="C27" s="115"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="118"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="116">
+      <c r="B28" s="115">
         <v>43399</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="118" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="115"/>
+      <c r="E28" s="118"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="117"/>
-      <c r="C29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="118"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="117"/>
-      <c r="C30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="118"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="117"/>
-      <c r="C31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="118"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="118"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="116">
+      <c r="B33" s="115">
         <v>43406</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="118" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="115"/>
+      <c r="E33" s="118"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="117"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="115"/>
+      <c r="E34" s="118"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="117"/>
-      <c r="C35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="115"/>
+      <c r="E35" s="118"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="117"/>
-      <c r="C36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="115"/>
+      <c r="E36" s="118"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="115"/>
+      <c r="E37" s="118"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="116">
+      <c r="B38" s="115">
         <v>43413</v>
       </c>
-      <c r="C38" s="115" t="s">
+      <c r="C38" s="118" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="115"/>
+      <c r="E38" s="118"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="117"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="115"/>
+      <c r="E39" s="118"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="117"/>
-      <c r="C40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="115"/>
+      <c r="E40" s="118"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="117"/>
-      <c r="C41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="115"/>
+      <c r="E41" s="118"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="115"/>
+      <c r="E42" s="118"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="116">
+      <c r="B43" s="115">
         <v>43420</v>
       </c>
-      <c r="C43" s="115" t="s">
+      <c r="C43" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="115" t="s">
+      <c r="D43" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="115"/>
+      <c r="E43" s="118"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="117"/>
-      <c r="C44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="115"/>
+      <c r="E44" s="118"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="117"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="115"/>
+      <c r="E45" s="118"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="117"/>
-      <c r="C46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="115"/>
+      <c r="E46" s="118"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="115"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="116">
+      <c r="E47" s="118"/>
+    </row>
+    <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="115">
         <v>43427</v>
       </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="115"/>
+      <c r="C48" s="118" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="118" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="118" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="117"/>
-      <c r="C49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="115"/>
+      <c r="E49" s="118"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="117"/>
-      <c r="C50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="115"/>
+      <c r="E50" s="118"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="117"/>
-      <c r="C51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="115"/>
+      <c r="E51" s="118"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="115"/>
+      <c r="E52" s="118"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="116">
+      <c r="B53" s="115">
         <v>43434</v>
       </c>
-      <c r="C53" s="115"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="119"/>
-      <c r="E53" s="115"/>
+      <c r="E53" s="118"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="117"/>
-      <c r="C54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="115"/>
+      <c r="E54" s="118"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="117"/>
-      <c r="C55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="115"/>
+      <c r="E55" s="118"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="117"/>
-      <c r="C56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="115"/>
+      <c r="E56" s="118"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="115"/>
+      <c r="E57" s="118"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="116">
+      <c r="B58" s="115">
         <v>43441</v>
       </c>
-      <c r="C58" s="115"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="115"/>
+      <c r="E58" s="118"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="117"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="115"/>
+      <c r="E59" s="118"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="117"/>
-      <c r="C60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="115"/>
+      <c r="E60" s="118"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="117"/>
-      <c r="C61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="115"/>
+      <c r="E61" s="118"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="118"/>
-      <c r="C62" s="115"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="115"/>
+      <c r="E62" s="118"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="116">
+      <c r="B63" s="115">
         <v>43448</v>
       </c>
-      <c r="C63" s="115"/>
+      <c r="C63" s="118"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="115"/>
+      <c r="E63" s="118"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="117"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="115"/>
+      <c r="E64" s="118"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="117"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="115"/>
+      <c r="E65" s="118"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="117"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="115"/>
+      <c r="E66" s="118"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="118"/>
-      <c r="C67" s="115"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="115"/>
+      <c r="E67" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2887,6 +2912,43 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3058,51 +3120,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122" t="s">
+      <c r="F4" s="124"/>
+      <c r="G4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122" t="s">
+      <c r="H4" s="124"/>
+      <c r="I4" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122" t="s">
+      <c r="J4" s="124"/>
+      <c r="K4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122" t="s">
+      <c r="L4" s="124"/>
+      <c r="M4" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122" t="s">
+      <c r="N4" s="124"/>
+      <c r="O4" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122" t="s">
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122" t="s">
+      <c r="R4" s="124"/>
+      <c r="S4" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122" t="s">
+      <c r="T4" s="124"/>
+      <c r="U4" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122" t="s">
+      <c r="V4" s="124"/>
+      <c r="W4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122" t="s">
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="123"/>
+      <c r="Z4" s="125"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -3114,7 +3176,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="122" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -3157,7 +3219,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="125"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -3196,7 +3258,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="125"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -3235,7 +3297,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="125"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3274,7 +3336,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="125"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3313,7 +3375,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="125"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -4011,7 +4073,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="122" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -4052,7 +4114,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="125"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -4091,7 +4153,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="125"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -4130,7 +4192,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="125"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -4169,7 +4231,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="125"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -4208,7 +4270,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="125"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4556,11 +4618,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4573,6 +4630,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -902,22 +902,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NT加賀まで活動日残り5回</t>
-    <rPh sb="2" eb="4">
-      <t>カガ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カツドウビ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外見に使う素材を購入する
 本体の作成</t>
     <rPh sb="0" eb="2">
@@ -937,6 +921,37 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT加賀まで活動日残り4回</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外見の素材の購入
+LEDテープの処理</t>
+    <rPh sb="0" eb="2">
+      <t>ガイケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム部の完成</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2055,18 +2070,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2076,17 +2091,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2380,11 +2395,11 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48:D52"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2431,471 +2446,512 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="115">
+      <c r="B3" s="116">
         <v>43364</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="115" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="116"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="115"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="118"/>
+      <c r="E4" s="115"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="116"/>
-      <c r="C5" s="118"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="118"/>
+      <c r="E5" s="115"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="115"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="118"/>
+      <c r="E6" s="115"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="117"/>
-      <c r="C7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="118"/>
+      <c r="E7" s="115"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="115">
+      <c r="B8" s="116">
         <v>43371</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="115" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="116"/>
-      <c r="C9" s="118"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="118"/>
+      <c r="E9" s="115"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="116"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="118"/>
+      <c r="E10" s="115"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="116"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="118"/>
+      <c r="E11" s="115"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="115"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="118"/>
+      <c r="E12" s="115"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="115">
+      <c r="B13" s="116">
         <v>43378</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="115" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="118"/>
+      <c r="E13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="116"/>
-      <c r="C14" s="118"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="118"/>
+      <c r="E14" s="115"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="116"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="118"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="116"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="118"/>
+      <c r="E16" s="115"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="118"/>
+      <c r="E17" s="115"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="115">
+      <c r="B18" s="116">
         <v>43385</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="115" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="115" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="116"/>
-      <c r="C19" s="118"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="118"/>
+      <c r="E19" s="115"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="116"/>
-      <c r="C20" s="118"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="118"/>
+      <c r="E20" s="115"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="116"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="118"/>
+      <c r="E21" s="115"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="118"/>
+      <c r="E22" s="115"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="115">
+      <c r="B23" s="116">
         <v>43392</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="115" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="118"/>
+      <c r="E23" s="115"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="116"/>
-      <c r="C24" s="118"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="115"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="116"/>
-      <c r="C25" s="118"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="118"/>
+      <c r="E25" s="115"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="116"/>
-      <c r="C26" s="118"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="118"/>
+      <c r="E26" s="115"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="118"/>
+      <c r="E27" s="115"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="115">
+      <c r="B28" s="116">
         <v>43399</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="115" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="118"/>
+      <c r="E28" s="115"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="116"/>
-      <c r="C29" s="118"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="118"/>
+      <c r="E29" s="115"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="116"/>
-      <c r="C30" s="118"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="118"/>
+      <c r="E30" s="115"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="116"/>
-      <c r="C31" s="118"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="118"/>
+      <c r="E31" s="115"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="118"/>
+      <c r="E32" s="115"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="115">
+      <c r="B33" s="116">
         <v>43406</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="115" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="118"/>
+      <c r="E33" s="115"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="116"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="118"/>
+      <c r="E34" s="115"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="116"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="118"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="116"/>
-      <c r="C36" s="118"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="118"/>
+      <c r="E36" s="115"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="118"/>
+      <c r="E37" s="115"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="115">
+      <c r="B38" s="116">
         <v>43413</v>
       </c>
-      <c r="C38" s="118" t="s">
+      <c r="C38" s="115" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="118"/>
+      <c r="E38" s="115"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="116"/>
-      <c r="C39" s="118"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="118"/>
+      <c r="E39" s="115"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="116"/>
-      <c r="C40" s="118"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="115"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="118"/>
+      <c r="E40" s="115"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="116"/>
-      <c r="C41" s="118"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="118"/>
+      <c r="E41" s="115"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
+      <c r="B42" s="118"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="118"/>
+      <c r="E42" s="115"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="115">
+      <c r="B43" s="116">
         <v>43420</v>
       </c>
-      <c r="C43" s="118" t="s">
+      <c r="C43" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="118" t="s">
+      <c r="D43" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="118"/>
+      <c r="E43" s="115"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="116"/>
-      <c r="C44" s="118"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="118"/>
+      <c r="E44" s="115"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="116"/>
-      <c r="C45" s="118"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="118"/>
+      <c r="E45" s="115"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="116"/>
-      <c r="C46" s="118"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="115"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="118"/>
+      <c r="E46" s="115"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="117"/>
-      <c r="C47" s="118"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="118"/>
+      <c r="E47" s="115"/>
     </row>
     <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="115">
+      <c r="B48" s="116">
         <v>43427</v>
       </c>
-      <c r="C48" s="118" t="s">
+      <c r="C48" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="118" t="s">
+      <c r="D48" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="115"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49" s="117"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="115"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B50" s="117"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="115"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B51" s="117"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="115"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B52" s="118"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="115"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B53" s="116">
+        <v>43434</v>
+      </c>
+      <c r="C53" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="118" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="116"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="118"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="116"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="118"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="116"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="118"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="118"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="115">
-        <v>43434</v>
-      </c>
-      <c r="C53" s="118"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="118"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="116"/>
-      <c r="C54" s="118"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="115"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="118"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="116"/>
-      <c r="C55" s="118"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="115"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="118"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="116"/>
-      <c r="C56" s="118"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="115"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="118"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="117"/>
-      <c r="C57" s="118"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="115"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="118"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="115">
+      <c r="B58" s="116">
         <v>43441</v>
       </c>
-      <c r="C58" s="118"/>
+      <c r="C58" s="115"/>
       <c r="D58" s="119"/>
-      <c r="E58" s="118"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="116"/>
-      <c r="C59" s="118"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="115"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="118"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="116"/>
-      <c r="C60" s="118"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="115"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="118"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="116"/>
-      <c r="C61" s="118"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="115"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="118"/>
+      <c r="E61" s="115"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="117"/>
-      <c r="C62" s="118"/>
+      <c r="B62" s="118"/>
+      <c r="C62" s="115"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="118"/>
+      <c r="E62" s="115"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="115">
+      <c r="B63" s="116">
         <v>43448</v>
       </c>
-      <c r="C63" s="118"/>
+      <c r="C63" s="115"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="118"/>
+      <c r="E63" s="115"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="116"/>
-      <c r="C64" s="118"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="115"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="118"/>
+      <c r="E64" s="115"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="116"/>
-      <c r="C65" s="118"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="118"/>
+      <c r="E65" s="115"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="116"/>
-      <c r="C66" s="118"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="115"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="118"/>
+      <c r="E66" s="115"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="117"/>
-      <c r="C67" s="118"/>
+      <c r="B67" s="118"/>
+      <c r="C67" s="115"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="118"/>
+      <c r="E67" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2912,43 +2968,6 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3120,51 +3139,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124" t="s">
+      <c r="F4" s="122"/>
+      <c r="G4" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124" t="s">
+      <c r="H4" s="122"/>
+      <c r="I4" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124" t="s">
+      <c r="J4" s="122"/>
+      <c r="K4" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124" t="s">
+      <c r="L4" s="122"/>
+      <c r="M4" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124" t="s">
+      <c r="N4" s="122"/>
+      <c r="O4" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124" t="s">
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124" t="s">
+      <c r="R4" s="122"/>
+      <c r="S4" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124" t="s">
+      <c r="T4" s="122"/>
+      <c r="U4" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124" t="s">
+      <c r="V4" s="122"/>
+      <c r="W4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="124"/>
-      <c r="Y4" s="124" t="s">
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="125"/>
+      <c r="Z4" s="123"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -3176,7 +3195,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="124" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -3219,7 +3238,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="123"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -3258,7 +3277,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="123"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -3297,7 +3316,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="123"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3336,7 +3355,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="123"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3375,7 +3394,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="123"/>
+      <c r="A10" s="125"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -4073,7 +4092,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="124" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -4114,7 +4133,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="123"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -4153,7 +4172,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="123"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -4192,7 +4211,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="123"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -4231,7 +4250,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="123"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -4270,7 +4289,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="123"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4618,6 +4637,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4630,11 +4654,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bomberman/Hard_Schedule.xlsx
+++ b/Bomberman/Hard_Schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -952,6 +952,40 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Raspberry Piのプログラムの完成
+草を生やす（挫折）</t>
+    <rPh sb="19" eb="21">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ザセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外見の完成
+NT加賀での展示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テンジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2070,18 +2104,18 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2091,17 +2125,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2395,11 +2429,11 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J52" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53:D57"/>
+      <selection pane="bottomRight" activeCell="E58" sqref="E58:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2446,512 +2480,479 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="116">
+      <c r="B3" s="115">
         <v>43364</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="118" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="117"/>
-      <c r="C4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="119"/>
-      <c r="E4" s="115"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="117"/>
-      <c r="C5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="119"/>
-      <c r="E5" s="115"/>
+      <c r="E5" s="118"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="117"/>
-      <c r="C6" s="115"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="118"/>
       <c r="D6" s="119"/>
-      <c r="E6" s="115"/>
+      <c r="E6" s="118"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="118"/>
-      <c r="C7" s="115"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="119"/>
-      <c r="E7" s="115"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="116">
+      <c r="B8" s="115">
         <v>43371</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="115" t="s">
+      <c r="D8" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="118" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="117"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="119"/>
-      <c r="E9" s="115"/>
+      <c r="E9" s="118"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="117"/>
-      <c r="C10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="119"/>
-      <c r="E10" s="115"/>
+      <c r="E10" s="118"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="117"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="119"/>
-      <c r="E11" s="115"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="118"/>
-      <c r="C12" s="115"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="119"/>
-      <c r="E12" s="115"/>
+      <c r="E12" s="118"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="116">
+      <c r="B13" s="115">
         <v>43378</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="118" t="s">
         <v>65</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="115"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="117"/>
-      <c r="C14" s="115"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="118"/>
       <c r="D14" s="119"/>
-      <c r="E14" s="115"/>
+      <c r="E14" s="118"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="117"/>
-      <c r="C15" s="115"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="119"/>
-      <c r="E15" s="115"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="117"/>
-      <c r="C16" s="115"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="115"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="118"/>
-      <c r="C17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="119"/>
-      <c r="E17" s="115"/>
+      <c r="E17" s="118"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="116">
+      <c r="B18" s="115">
         <v>43385</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="118" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="118" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="117"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="119"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="118"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="117"/>
-      <c r="C20" s="115"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="119"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="118"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="117"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="119"/>
-      <c r="E21" s="115"/>
+      <c r="E21" s="118"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="118"/>
-      <c r="C22" s="115"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="119"/>
-      <c r="E22" s="115"/>
+      <c r="E22" s="118"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="116">
+      <c r="B23" s="115">
         <v>43392</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="118" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="118"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="117"/>
-      <c r="C24" s="115"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="119"/>
-      <c r="E24" s="115"/>
+      <c r="E24" s="118"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="117"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="119"/>
-      <c r="E25" s="115"/>
+      <c r="E25" s="118"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="117"/>
-      <c r="C26" s="115"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="119"/>
-      <c r="E26" s="115"/>
+      <c r="E26" s="118"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="118"/>
-      <c r="C27" s="115"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="119"/>
-      <c r="E27" s="115"/>
+      <c r="E27" s="118"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="116">
+      <c r="B28" s="115">
         <v>43399</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="118" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="115"/>
+      <c r="E28" s="118"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="117"/>
-      <c r="C29" s="115"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="119"/>
-      <c r="E29" s="115"/>
+      <c r="E29" s="118"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="117"/>
-      <c r="C30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="119"/>
-      <c r="E30" s="115"/>
+      <c r="E30" s="118"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="117"/>
-      <c r="C31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="119"/>
-      <c r="E31" s="115"/>
+      <c r="E31" s="118"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="118"/>
-      <c r="C32" s="115"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="119"/>
-      <c r="E32" s="115"/>
+      <c r="E32" s="118"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="116">
+      <c r="B33" s="115">
         <v>43406</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="118" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="115"/>
+      <c r="E33" s="118"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="117"/>
-      <c r="C34" s="115"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="119"/>
-      <c r="E34" s="115"/>
+      <c r="E34" s="118"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="117"/>
-      <c r="C35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="119"/>
-      <c r="E35" s="115"/>
+      <c r="E35" s="118"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="117"/>
-      <c r="C36" s="115"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="119"/>
-      <c r="E36" s="115"/>
+      <c r="E36" s="118"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B37" s="118"/>
-      <c r="C37" s="115"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
       <c r="D37" s="119"/>
-      <c r="E37" s="115"/>
+      <c r="E37" s="118"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B38" s="116">
+      <c r="B38" s="115">
         <v>43413</v>
       </c>
-      <c r="C38" s="115" t="s">
+      <c r="C38" s="118" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="115"/>
+      <c r="E38" s="118"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" s="117"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="118"/>
       <c r="D39" s="119"/>
-      <c r="E39" s="115"/>
+      <c r="E39" s="118"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" s="117"/>
-      <c r="C40" s="115"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="119"/>
-      <c r="E40" s="115"/>
+      <c r="E40" s="118"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B41" s="117"/>
-      <c r="C41" s="115"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="118"/>
       <c r="D41" s="119"/>
-      <c r="E41" s="115"/>
+      <c r="E41" s="118"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B42" s="118"/>
-      <c r="C42" s="115"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="119"/>
-      <c r="E42" s="115"/>
+      <c r="E42" s="118"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="116">
+      <c r="B43" s="115">
         <v>43420</v>
       </c>
-      <c r="C43" s="115" t="s">
+      <c r="C43" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="115" t="s">
+      <c r="D43" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="115"/>
+      <c r="E43" s="118"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B44" s="117"/>
-      <c r="C44" s="115"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="118"/>
       <c r="D44" s="119"/>
-      <c r="E44" s="115"/>
+      <c r="E44" s="118"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B45" s="117"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="118"/>
       <c r="D45" s="119"/>
-      <c r="E45" s="115"/>
+      <c r="E45" s="118"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B46" s="117"/>
-      <c r="C46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="118"/>
       <c r="D46" s="119"/>
-      <c r="E46" s="115"/>
+      <c r="E46" s="118"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="118"/>
-      <c r="C47" s="115"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
       <c r="D47" s="119"/>
-      <c r="E47" s="115"/>
+      <c r="E47" s="118"/>
     </row>
     <row r="48" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="116">
+      <c r="B48" s="115">
         <v>43427</v>
       </c>
-      <c r="C48" s="115" t="s">
+      <c r="C48" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="115" t="s">
+      <c r="D48" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="115"/>
+      <c r="E48" s="118"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" s="117"/>
-      <c r="C49" s="115"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="118"/>
       <c r="D49" s="119"/>
-      <c r="E49" s="115"/>
+      <c r="E49" s="118"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B50" s="117"/>
-      <c r="C50" s="115"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="118"/>
       <c r="D50" s="119"/>
-      <c r="E50" s="115"/>
+      <c r="E50" s="118"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B51" s="117"/>
-      <c r="C51" s="115"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="119"/>
-      <c r="E51" s="115"/>
+      <c r="E51" s="118"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" s="118"/>
-      <c r="C52" s="115"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="119"/>
-      <c r="E52" s="115"/>
+      <c r="E52" s="118"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B53" s="116">
+      <c r="B53" s="115">
         <v>43434</v>
       </c>
-      <c r="C53" s="115" t="s">
+      <c r="C53" s="118" t="s">
         <v>83</v>
       </c>
       <c r="D53" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="115" t="s">
+      <c r="E53" s="118" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B54" s="117"/>
-      <c r="C54" s="115"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="118"/>
       <c r="D54" s="119"/>
-      <c r="E54" s="115"/>
+      <c r="E54" s="118"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B55" s="117"/>
-      <c r="C55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="119"/>
-      <c r="E55" s="115"/>
+      <c r="E55" s="118"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B56" s="117"/>
-      <c r="C56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="118"/>
       <c r="D56" s="119"/>
-      <c r="E56" s="115"/>
+      <c r="E56" s="118"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B57" s="118"/>
-      <c r="C57" s="115"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
       <c r="D57" s="119"/>
-      <c r="E57" s="115"/>
+      <c r="E57" s="118"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B58" s="116">
+      <c r="B58" s="115">
         <v>43441</v>
       </c>
-      <c r="C58" s="115"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="115"/>
+      <c r="C58" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="118"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B59" s="117"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="118"/>
       <c r="D59" s="119"/>
-      <c r="E59" s="115"/>
+      <c r="E59" s="118"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B60" s="117"/>
-      <c r="C60" s="115"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="118"/>
       <c r="D60" s="119"/>
-      <c r="E60" s="115"/>
+      <c r="E60" s="118"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B61" s="117"/>
-      <c r="C61" s="115"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="119"/>
-      <c r="E61" s="115"/>
+      <c r="E61" s="118"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B62" s="118"/>
-      <c r="C62" s="115"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
       <c r="D62" s="119"/>
-      <c r="E62" s="115"/>
+      <c r="E62" s="118"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B63" s="116">
+      <c r="B63" s="115">
         <v>43448</v>
       </c>
-      <c r="C63" s="115"/>
+      <c r="C63" s="118"/>
       <c r="D63" s="119"/>
-      <c r="E63" s="115"/>
+      <c r="E63" s="118"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B64" s="117"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="119"/>
-      <c r="E64" s="115"/>
+      <c r="E64" s="118"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B65" s="117"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="118"/>
       <c r="D65" s="119"/>
-      <c r="E65" s="115"/>
+      <c r="E65" s="118"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B66" s="117"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="118"/>
       <c r="D66" s="119"/>
-      <c r="E66" s="115"/>
+      <c r="E66" s="118"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B67" s="118"/>
-      <c r="C67" s="115"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
       <c r="D67" s="119"/>
-      <c r="E67" s="115"/>
+      <c r="E67" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="E63:E67"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
     <mergeCell ref="E13:E17"/>
     <mergeCell ref="E18:E22"/>
     <mergeCell ref="E23:E27"/>
@@ -2968,6 +2969,43 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D67"/>
+    <mergeCell ref="E63:E67"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3139,51 +3177,51 @@
       <c r="C4" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122" t="s">
+      <c r="D4" s="124"/>
+      <c r="E4" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122" t="s">
+      <c r="F4" s="124"/>
+      <c r="G4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122" t="s">
+      <c r="H4" s="124"/>
+      <c r="I4" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122" t="s">
+      <c r="J4" s="124"/>
+      <c r="K4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122" t="s">
+      <c r="L4" s="124"/>
+      <c r="M4" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122" t="s">
+      <c r="N4" s="124"/>
+      <c r="O4" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122" t="s">
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122" t="s">
+      <c r="R4" s="124"/>
+      <c r="S4" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122" t="s">
+      <c r="T4" s="124"/>
+      <c r="U4" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122" t="s">
+      <c r="V4" s="124"/>
+      <c r="W4" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122" t="s">
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="123"/>
+      <c r="Z4" s="125"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
@@ -3195,7 +3233,7 @@
       <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="122" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -3238,7 +3276,7 @@
       <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="125"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="42" t="s">
         <v>59</v>
       </c>
@@ -3277,7 +3315,7 @@
       <c r="AI6" s="41"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="125"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="48" t="s">
         <v>54</v>
       </c>
@@ -3316,7 +3354,7 @@
       <c r="AI7" s="41"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="125"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="48" t="s">
         <v>24</v>
       </c>
@@ -3355,7 +3393,7 @@
       <c r="AI8" s="41"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="125"/>
+      <c r="A9" s="123"/>
       <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
@@ -3394,7 +3432,7 @@
       <c r="AI9" s="41"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="125"/>
+      <c r="A10" s="123"/>
       <c r="B10" s="48" t="s">
         <v>26</v>
       </c>
@@ -4092,7 +4130,7 @@
       <c r="AI27" s="41"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="122" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -4133,7 +4171,7 @@
       <c r="AI28" s="41"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A29" s="125"/>
+      <c r="A29" s="123"/>
       <c r="B29" s="42" t="s">
         <v>42</v>
       </c>
@@ -4172,7 +4210,7 @@
       <c r="AI29" s="41"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A30" s="125"/>
+      <c r="A30" s="123"/>
       <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
@@ -4211,7 +4249,7 @@
       <c r="AI30" s="41"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A31" s="125"/>
+      <c r="A31" s="123"/>
       <c r="B31" s="42" t="s">
         <v>44</v>
       </c>
@@ -4250,7 +4288,7 @@
       <c r="AI31" s="41"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A32" s="125"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="42" t="s">
         <v>45</v>
       </c>
@@ -4289,7 +4327,7 @@
       <c r="AI32" s="41"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A33" s="125"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
@@ -4637,11 +4675,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4654,6 +4687,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
